--- a/Results/no_knowledge.xlsx
+++ b/Results/no_knowledge.xlsx
@@ -429,12 +429,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>F_lpg</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>956964.5749238674</v>
+        <v>848962.1554329538</v>
       </c>
     </row>
     <row r="2">
@@ -454,12 +454,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
@@ -471,12 +471,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>V11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
@@ -505,12 +505,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T_cyc-T_reg</t>
+          <t>F_rgc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
@@ -522,12 +522,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T_cyc-T_reg</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>V11</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>T_20</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T_fra</t>
         </is>
       </c>
     </row>
@@ -573,12 +573,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>T_10</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>L_sp</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
@@ -590,12 +590,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T_reg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>T_r</t>
+          <t>C_co</t>
         </is>
       </c>
     </row>
@@ -607,12 +607,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>P2</t>
         </is>
       </c>
     </row>
@@ -624,12 +624,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C_co</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>T_cyc</t>
+          <t>AWGC</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>T_r</t>
+          <t>C_o2</t>
         </is>
       </c>
     </row>
@@ -658,12 +658,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>AWGC</t>
         </is>
       </c>
     </row>
@@ -675,12 +675,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>T_20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
@@ -692,12 +692,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>C_co</t>
         </is>
       </c>
     </row>
@@ -709,12 +709,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>F_sc</t>
         </is>
       </c>
     </row>
@@ -726,12 +726,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
@@ -743,12 +743,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>F_reflux</t>
         </is>
       </c>
     </row>
@@ -760,12 +760,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>T_cyc</t>
+          <t>C_o2</t>
         </is>
       </c>
     </row>
@@ -777,12 +777,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>F_reflux</t>
         </is>
       </c>
     </row>
@@ -794,12 +794,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>C_co</t>
+          <t>T_cyc-T_reg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>V3</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C_co</t>
+          <t>T_fra</t>
         </is>
       </c>
     </row>
@@ -845,12 +845,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>T_cyc-T_reg</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>T_10</t>
         </is>
       </c>
     </row>
@@ -862,12 +862,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F_reflux</t>
         </is>
       </c>
     </row>
@@ -879,12 +879,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>F_sg</t>
+          <t>T_10</t>
         </is>
       </c>
     </row>
@@ -896,12 +896,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
@@ -913,12 +913,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>T_cyc-T_reg</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>V8</t>
         </is>
       </c>
     </row>
@@ -930,12 +930,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>AWGC</t>
         </is>
       </c>
     </row>
@@ -947,12 +947,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>P2</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>T_reg</t>
         </is>
       </c>
     </row>
@@ -981,12 +981,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>T_r</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
@@ -998,12 +998,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>T_10</t>
         </is>
       </c>
     </row>
@@ -1015,12 +1015,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>L_sp</t>
         </is>
       </c>
     </row>
@@ -1032,12 +1032,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>AWGC</t>
         </is>
       </c>
     </row>
@@ -1049,12 +1049,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>L_sp</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>AWGC</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
@@ -1083,12 +1083,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>T_cyc-T_reg</t>
+          <t>V7</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>T_cyc</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>T_cyc-T_reg</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>T_20</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1134,12 +1134,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>F_reflux</t>
         </is>
       </c>
     </row>
@@ -1151,12 +1151,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
@@ -1168,12 +1168,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>C_o2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>T_cyc</t>
+          <t>ACAB</t>
         </is>
       </c>
     </row>
@@ -1185,12 +1185,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>V11</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
@@ -1202,12 +1202,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>V11</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>L_sp</t>
         </is>
       </c>
     </row>
@@ -1219,12 +1219,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>F_rgc</t>
         </is>
       </c>
     </row>
@@ -1236,12 +1236,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>F_rgc</t>
         </is>
       </c>
     </row>
@@ -1253,12 +1253,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>AWGC</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1282,43 +1282,43 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
+          <t>ACAB</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>F7</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>C_co</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>T_cyc-T_reg</t>
+          <t>T_reg</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>AWGC</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>L_sp</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1330,72 +1330,72 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>F_rgc</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
+          <t>T_10</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>T_20</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>T_10</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>V11</t>
+          <t>V1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>C_co</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>L_sp</t>
+          <t>T_r</t>
         </is>
       </c>
     </row>
@@ -1407,134 +1407,134 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>C_o2</t>
+          <t>L_sp</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
+          <t>T_cyc-T_reg</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>V2</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>F_lpg</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>T_cyc-T_reg</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>C_co</t>
+          <t>V6</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>C_o2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>C_co</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>T_cyc-T_reg</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>V11</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>T_10</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>F_sg</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>T_reg</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>T_cyc-T_reg</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>C_o2</t>
+          <t>T_cyc-T_reg</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>C_co</t>
+          <t>V7</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1546,115 +1546,115 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>T_reg</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>T_fra</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>T_20</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>F_lpg</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>AWGC</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>C_co</t>
+          <t>V10</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>T_10</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>V6</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>L_sp</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>F_sg</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>F_rgc</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>C_o2</t>
+          <t>L_sp</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1666,211 +1666,211 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>V1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>F5</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>F_rgc</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>C_co</t>
+          <t>T_20</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>T_r</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>L_sp</t>
+          <t>F_lco</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>L_sp</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>T_r</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>C_co</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>L_sp</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>T_20</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>V1</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>V9</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>F_reflux</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>T_cyc-T_reg</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>C_o2</t>
+          <t>T3</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>T2</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>F_reflux</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>T_20</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>T_r</t>
+          <t>V8</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>T_20</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>C_o2</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
+          <t>F7</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
           <t>C_o2</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>T_fra</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -1882,43 +1882,43 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>F_sc</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>T_reg</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>F_rgc</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
           <t>T_fra</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>F_reflux</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>T_reg</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -1930,60 +1930,60 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>F3</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>T_cyc-T_reg</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>L_sp</t>
+          <t>V4</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
@@ -1995,254 +1995,254 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>T_r</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>V7</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>L_sp</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>V7</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>C_co</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>F7</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>C_o2</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>T_10</t>
+          <t>F_lpg</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V7</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>C_o2</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>V4</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>L_sp</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>T_cyc-T_reg</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>F_slurry</t>
+          <t>P1</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>F_hn</t>
+          <t>T_10</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>T_20</t>
+          <t>F_rgc</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>T_r</t>
+          <t>V2</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>T_r</t>
+          <t>V3</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>F_rgc</t>
+          <t>F_hn</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>T_reg</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>AWGC</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>T_fra</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>L_sp</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>T_cyc-T_reg</t>
+          <t>F_rgc</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>V3</t>
+          <t>C_co</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>T_fra</t>
+          <t>ACAB</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>F_ln</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>V9</t>
+          <t>L_sp</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>C_co</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>V8</t>
+          <t>V6</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>F_reflux</t>
+          <t>C_o2</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>F_lpg</t>
+          <t>V1</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>AWGC</t>
+          <t>T3</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>T_cyc-T_reg</t>
+          <t>C_co</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>V2</t>
+          <t>T_cyc</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>F_sg</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>T_r</t>
+          <t>C_co</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>F_lco</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2254,48 +2254,48 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>F_sc</t>
+          <t>C_o2</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>L_sp</t>
+          <t>T_cyc</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
           <t>T_r</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>F_lco</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>V10</t>
+          <t>F_sc</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>F_ln</t>
+          <t>C_o2</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>ACAB</t>
+          <t>T_10</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>F_slurry</t>
         </is>
       </c>
     </row>
